--- a/bsd-api-dms-order/template_order_v5.xlsx
+++ b/bsd-api-dms-order/template_order_v5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014C1907-434C-4F51-B8A0-1039371FFF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6277AF5-2A73-4646-A878-C92FC7550A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="248">
   <si>
     <t>Row</t>
   </si>
@@ -196,18 +196,9 @@
     <t>4/6</t>
   </si>
   <si>
-    <t>5/6</t>
-  </si>
-  <si>
-    <t>6/6</t>
-  </si>
-  <si>
     <t>3/6</t>
   </si>
   <si>
-    <t>INV/006</t>
-  </si>
-  <si>
     <t>AICE Milk Stick 40g AICE牛奶支40g</t>
   </si>
   <si>
@@ -794,6 +785,9 @@
   </si>
   <si>
     <t>8885013132083</t>
+  </si>
+  <si>
+    <t>INV/011</t>
   </si>
 </sst>
 </file>
@@ -1073,11 +1067,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:L1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>45279</v>
+        <v>45399</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1215,7 +1209,7 @@
         <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
@@ -1246,7 +1240,7 @@
         <v>3500</v>
       </c>
       <c r="T2" s="1">
-        <f t="shared" ref="T2:T7" si="0">S2-Q2-R2</f>
+        <f t="shared" ref="T2:T5" si="0">S2-Q2-R2</f>
         <v>3500</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -1276,7 +1270,7 @@
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>45279</v>
+        <v>45399</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1303,7 +1297,7 @@
         <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -1330,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S7" si="1">O3*P3</f>
+        <f t="shared" ref="S3:S5" si="1">O3*P3</f>
         <v>7000</v>
       </c>
       <c r="T3" s="1">
@@ -1364,7 +1358,7 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>45279</v>
+        <v>45399</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -1388,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="K4" t="s">
         <v>37</v>
@@ -1452,7 +1446,7 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>45279</v>
+        <v>45399</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
@@ -1479,7 +1473,7 @@
         <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
@@ -1535,182 +1529,6 @@
         <v>26</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>45279</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>3500</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>45279</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="3">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>3500</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1725,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A0AF9-577D-46E4-B677-1C518772D20F}">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1745,10 +1563,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1761,10 +1579,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1777,10 +1595,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1793,762 +1611,762 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
